--- a/fra_arcgis.xlsx
+++ b/fra_arcgis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne\Progg\pandas_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magne.syljuasen\Progg\nedre_glomma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0828BF4-FCEC-421C-8A13-A484AD09C528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F03047E-8867-4D20-BB2D-9F2F8F409D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C253E200-655C-443C-A5A1-C098B0E00FE9}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="18240" windowHeight="29040" xr2:uid="{C253E200-655C-443C-A5A1-C098B0E00FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
   <si>
     <t>byggtype_profet</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>byggstandard_profet</t>
+  </si>
+  <si>
+    <t>bebygd_areal</t>
+  </si>
+  <si>
+    <t>energiomraade</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,18 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BEB1F2-5252-442C-B3BE-AC59FE5A69F1}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -444,8 +450,14 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -458,8 +470,15 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <f>C2/10</f>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -472,8 +491,15 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">C3/10</f>
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -486,8 +512,15 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -500,8 +533,15 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -514,8 +554,15 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -528,8 +575,15 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>23.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -542,8 +596,15 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -556,8 +617,15 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -570,8 +638,15 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>18.7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -584,8 +659,15 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>24.8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -598,8 +680,15 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -612,8 +701,15 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -626,8 +722,15 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -640,8 +743,15 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -654,8 +764,15 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>42.8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -668,8 +785,15 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>25.8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -682,8 +806,15 @@
       <c r="D18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>29.1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -696,8 +827,15 @@
       <c r="D19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>30.1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -710,8 +848,15 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -723,6 +868,13 @@
       </c>
       <c r="D21" t="s">
         <v>8</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
